--- a/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
@@ -572,7 +572,7 @@
         <v>-7.306490185510363</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-4.270187550866786</v>
+        <v>-4.270187550866783</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.75209057843696</v>
+        <v>-12.11227946876767</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.509707483406915</v>
+        <v>-8.573123443314458</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.177446125695324</v>
+        <v>-2.848330955574532</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1881315908305914</v>
+        <v>0.370559688035213</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>-0.4264785463971375</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.2492500959145012</v>
+        <v>-0.249250095914501</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6090754390663147</v>
+        <v>-0.6088015857285672</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4346156648730589</v>
+        <v>-0.4350681673887342</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2128303692254047</v>
+        <v>-0.1813787649628182</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01343839545917612</v>
+        <v>0.0235552686148339</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.94855832887466</v>
+        <v>-17.82797058097767</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.69131901172484</v>
+        <v>-10.75113868086636</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-9.094364266396285</v>
+        <v>-9.429290441941873</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.307867926595949</v>
+        <v>-1.79435219906365</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6010873439176196</v>
+        <v>-0.5912186934450109</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3531537579906475</v>
+        <v>-0.3587618926559797</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3633134804833937</v>
+        <v>-0.3743219431407253</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.04968804148733439</v>
+        <v>-0.07560744597630523</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>-9.0742808458259</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.710760310888103</v>
+        <v>6.710760310888092</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.98715753337721</v>
+        <v>-13.76399219173546</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.037940889551128</v>
+        <v>0.8833524698524602</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.523767845486427</v>
+        <v>-3.830641486882687</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.21412505261845</v>
+        <v>11.77721495023349</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>-0.3595608080886127</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.2659082787130006</v>
+        <v>0.2659082787130002</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4981588913580109</v>
+        <v>-0.4913609599904382</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.03529943247592286</v>
+        <v>0.03387027181804845</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.2004667626323331</v>
+        <v>-0.1658645223509215</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5350889570035989</v>
+        <v>0.5200341770086038</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.604215195454275</v>
+        <v>-7.656192045199327</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.938188335995808</v>
+        <v>0.4013590264408299</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6585931125713753</v>
+        <v>0.6006888549154447</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.507815407705159</v>
+        <v>8.830437518603622</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3027410164822567</v>
+        <v>-0.2986451531250608</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03493337435124469</v>
+        <v>0.01532749174466547</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02777135775080384</v>
+        <v>0.02876024599815119</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4452735393421284</v>
+        <v>0.4067189732622556</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-8.460633953738398</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.3722218786208847</v>
+        <v>0.3722218786208792</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.61823414970163</v>
+        <v>-10.79536720603247</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.846658763170548</v>
+        <v>-2.069763759739547</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.231247164710927</v>
+        <v>-6.399391663767126</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.656709098766043</v>
+        <v>2.543356158869978</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>-0.3535656621119032</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.01555496617472488</v>
+        <v>0.01555496617472465</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4200800155315095</v>
+        <v>-0.4302125639174999</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07387861227390494</v>
+        <v>-0.0824915021176444</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2651224113053677</v>
+        <v>-0.2767382586526111</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1178790256051162</v>
+        <v>0.1124523821698222</v>
       </c>
     </row>
     <row r="34">
